--- a/reports/ssh/distribiution/distribiution.xlsx
+++ b/reports/ssh/distribiution/distribiution.xlsx
@@ -1,25 +1,104 @@
+
+<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ml\undersampling_data\reports\ssh\distribiution\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Distribution" sheetId="2" r:id="rId1"/>
+  </sheets>
+  <calcPr calcId="0"/>
+</workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+  <si>
+    <t>mix_NM_data</t>
+  </si>
+  <si>
+    <t>mix_KM_data</t>
+  </si>
+  <si>
+    <t>mix_CC_data</t>
+  </si>
+  <si>
+    <t>borderline_NM_data</t>
+  </si>
+  <si>
+    <t>borderline_KM_data</t>
+  </si>
+  <si>
+    <t>borderline_CC_data</t>
+  </si>
+  <si>
+    <t>smote_NM_data</t>
+  </si>
+  <si>
+    <t>smote_KM_data</t>
+  </si>
+  <si>
+    <t>smote_CC_data</t>
+  </si>
+  <si>
+    <t>GAN_NM_data</t>
+  </si>
+  <si>
+    <t>GAN_KM_data</t>
+  </si>
+  <si>
+    <t>GAN_CC_data</t>
+  </si>
+  <si>
+    <t>original</t>
+  </si>
+  <si>
+    <t>borderline smote</t>
+  </si>
+  <si>
+    <t>smote</t>
+  </si>
+  <si>
+    <t>gan</t>
+  </si>
+  <si>
+    <t>centroid</t>
+  </si>
+</sst>
+</file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <scheme val="minor"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -27,85 +106,45 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -184,6 +223,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -218,6 +258,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -390,4 +431,205 @@
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
 </a:theme>
+</file>
+
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N26" sqref="N26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="4" width="15.6328125" customWidth="1"/>
+    <col min="5" max="7" width="20.6328125" customWidth="1"/>
+    <col min="8" max="13" width="15.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1" s="2"/>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="2">
+        <v>56.622516556291387</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2">
+        <v>51.324503311258283</v>
+      </c>
+      <c r="E2" s="2">
+        <v>52.649006622516559</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2">
+        <v>55.629139072847678</v>
+      </c>
+      <c r="H2" s="2">
+        <v>56.622516556291387</v>
+      </c>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2">
+        <v>51.655629139072843</v>
+      </c>
+      <c r="K2" s="2">
+        <v>59.602649006622521</v>
+      </c>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2">
+        <v>51.655629139072843</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="2">
+        <v>27.152317880794701</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2">
+        <v>2.317880794701987</v>
+      </c>
+      <c r="E3" s="2">
+        <v>47.350993377483441</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2">
+        <v>17.880794701986751</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="2">
+        <v>13.24503311258278</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2">
+        <v>3.311258278145695</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2">
+        <v>43.377483443708613</v>
+      </c>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2">
+        <v>12.251655629139069</v>
+      </c>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="2">
+        <v>2.9801324503311259</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2">
+        <v>17.880794701986751</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2">
+        <v>40.397350993377493</v>
+      </c>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2">
+        <v>17.880794701986751</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2">
+        <v>100</v>
+      </c>
+      <c r="D6" s="2">
+        <v>25.165562913907291</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2">
+        <v>100</v>
+      </c>
+      <c r="G6" s="2">
+        <v>26.49006622516556</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2">
+        <v>100</v>
+      </c>
+      <c r="J6" s="2">
+        <v>36.092715231788077</v>
+      </c>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2">
+        <v>100</v>
+      </c>
+      <c r="M6" s="2">
+        <v>30.463576158940398</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/reports/ssh/distribiution/distribiution.xlsx
+++ b/reports/ssh/distribiution/distribiution.xlsx
@@ -125,12 +125,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -438,19 +437,12 @@
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="4" width="15.6328125" customWidth="1"/>
-    <col min="5" max="7" width="20.6328125" customWidth="1"/>
-    <col min="8" max="13" width="15.6328125" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1" s="2"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -492,141 +484,109 @@
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="2">
-        <v>56.622516556291387</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2">
-        <v>51.324503311258283</v>
-      </c>
-      <c r="E2" s="2">
-        <v>52.649006622516559</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2">
-        <v>55.629139072847678</v>
-      </c>
-      <c r="H2" s="2">
-        <v>56.622516556291387</v>
-      </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2">
-        <v>51.655629139072843</v>
-      </c>
-      <c r="K2" s="2">
-        <v>59.602649006622521</v>
-      </c>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2">
-        <v>51.655629139072843</v>
+      <c r="B2">
+        <v>54.635761589403977</v>
+      </c>
+      <c r="D2">
+        <v>50.662251655629142</v>
+      </c>
+      <c r="E2">
+        <v>52.317880794701978</v>
+      </c>
+      <c r="G2">
+        <v>57.947019867549663</v>
+      </c>
+      <c r="H2">
+        <v>54.635761589403977</v>
+      </c>
+      <c r="J2">
+        <v>51.986754966887418</v>
+      </c>
+      <c r="K2">
+        <v>58.940397350993379</v>
+      </c>
+      <c r="M2">
+        <v>50.662251655629142</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="2">
-        <v>27.152317880794701</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2">
-        <v>2.317880794701987</v>
-      </c>
-      <c r="E3" s="2">
-        <v>47.350993377483441</v>
-      </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2">
-        <v>17.880794701986751</v>
-      </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
+      <c r="B3">
+        <v>26.158940397350989</v>
+      </c>
+      <c r="D3">
+        <v>2.9801324503311259</v>
+      </c>
+      <c r="E3">
+        <v>47.682119205298022</v>
+      </c>
+      <c r="G3">
+        <v>17.21854304635762</v>
+      </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="2">
-        <v>13.24503311258278</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2">
-        <v>3.311258278145695</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2">
-        <v>43.377483443708613</v>
-      </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2">
-        <v>12.251655629139069</v>
-      </c>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
+      <c r="B4">
+        <v>16.88741721854305</v>
+      </c>
+      <c r="D4">
+        <v>1.9867549668874169</v>
+      </c>
+      <c r="H4">
+        <v>45.364238410596023</v>
+      </c>
+      <c r="J4">
+        <v>12.913907284768211</v>
+      </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="2">
-        <v>2.9801324503311259</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2">
-        <v>17.880794701986751</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2">
-        <v>40.397350993377493</v>
-      </c>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2">
-        <v>17.880794701986751</v>
+      <c r="B5">
+        <v>2.317880794701987</v>
+      </c>
+      <c r="D5">
+        <v>25.165562913907291</v>
+      </c>
+      <c r="K5">
+        <v>41.059602649006621</v>
+      </c>
+      <c r="M5">
+        <v>11.589403973509929</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2">
+      <c r="C6">
         <v>100</v>
       </c>
-      <c r="D6" s="2">
-        <v>25.165562913907291</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2">
+      <c r="D6">
+        <v>19.205298013245031</v>
+      </c>
+      <c r="F6">
         <v>100</v>
       </c>
-      <c r="G6" s="2">
-        <v>26.49006622516556</v>
-      </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2">
+      <c r="G6">
+        <v>24.834437086092709</v>
+      </c>
+      <c r="I6">
         <v>100</v>
       </c>
-      <c r="J6" s="2">
-        <v>36.092715231788077</v>
-      </c>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2">
+      <c r="J6">
+        <v>35.099337748344382</v>
+      </c>
+      <c r="L6">
         <v>100</v>
       </c>
-      <c r="M6" s="2">
-        <v>30.463576158940398</v>
+      <c r="M6">
+        <v>37.748344370860927</v>
       </c>
     </row>
   </sheetData>

--- a/reports/ssh/distribiution/distribiution.xlsx
+++ b/reports/ssh/distribiution/distribiution.xlsx
@@ -19,51 +19,123 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
-  <si>
-    <t>mix_NM_data</t>
-  </si>
-  <si>
-    <t>mix_KM_data</t>
-  </si>
-  <si>
-    <t>mix_CC_data</t>
-  </si>
-  <si>
-    <t>borderline_NM_data</t>
-  </si>
-  <si>
-    <t>borderline_KM_data</t>
-  </si>
-  <si>
-    <t>borderline_CC_data</t>
-  </si>
-  <si>
-    <t>smote_NM_data</t>
-  </si>
-  <si>
-    <t>smote_KM_data</t>
-  </si>
-  <si>
-    <t>smote_CC_data</t>
-  </si>
-  <si>
-    <t>GAN_NM_data</t>
-  </si>
-  <si>
-    <t>GAN_KM_data</t>
-  </si>
-  <si>
-    <t>GAN_CC_data</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+  <si>
+    <t>mix_HDBSCAN_cos</t>
+  </si>
+  <si>
+    <t>mix_HDBSCAN_nn</t>
+  </si>
+  <si>
+    <t>mix_KM_centroids</t>
+  </si>
+  <si>
+    <t>mix_KM_cos_mal</t>
+  </si>
+  <si>
+    <t>mix_KM_cos</t>
+  </si>
+  <si>
+    <t>mix_KM_nn</t>
+  </si>
+  <si>
+    <t>mix_KM_HDBSCAN_cos</t>
+  </si>
+  <si>
+    <t>mix_KM_HDBSCAN_cos_mal</t>
+  </si>
+  <si>
+    <t>mix_KM_HDBSCAN_nn</t>
+  </si>
+  <si>
+    <t>borderline_HDBSCAN_cos</t>
+  </si>
+  <si>
+    <t>borderline_HDBSCAN_nn</t>
+  </si>
+  <si>
+    <t>borderline_KM_centroids</t>
+  </si>
+  <si>
+    <t>borderline_KM_cos_mal</t>
+  </si>
+  <si>
+    <t>borderline_KM_cos</t>
+  </si>
+  <si>
+    <t>borderline_KM_nn</t>
+  </si>
+  <si>
+    <t>borderline_KM_HDBSCAN_cos</t>
+  </si>
+  <si>
+    <t>borderline_KM_HDBSCAN_cos_mal</t>
+  </si>
+  <si>
+    <t>borderline_KM_HDBSCAN_nn</t>
+  </si>
+  <si>
+    <t>smote_HDBSCAN_cos</t>
+  </si>
+  <si>
+    <t>smote_HDBSCAN_nn</t>
+  </si>
+  <si>
+    <t>smote_KM_centroids</t>
+  </si>
+  <si>
+    <t>smote_KM_cos_mal</t>
+  </si>
+  <si>
+    <t>smote_KM_cos</t>
+  </si>
+  <si>
+    <t>smote_KM_nn</t>
+  </si>
+  <si>
+    <t>smote_KM_HDBSCAN_cos</t>
+  </si>
+  <si>
+    <t>smote_KM_HDBSCAN_cos_mal</t>
+  </si>
+  <si>
+    <t>smote_KM_HDBSCAN_nn</t>
+  </si>
+  <si>
+    <t>GAN_HDBSCAN_cos</t>
+  </si>
+  <si>
+    <t>GAN_HDBSCAN_nn</t>
+  </si>
+  <si>
+    <t>GAN_KM_centroids</t>
+  </si>
+  <si>
+    <t>GAN_KM_cos_mal</t>
+  </si>
+  <si>
+    <t>GAN_KM_cos</t>
+  </si>
+  <si>
+    <t>GAN_KM_nn</t>
+  </si>
+  <si>
+    <t>GAN_KM_HDBSCAN_cos</t>
+  </si>
+  <si>
+    <t>GAN_KM_HDBSCAN_cos_mal</t>
+  </si>
+  <si>
+    <t>GAN_KM_HDBSCAN_nn</t>
   </si>
   <si>
     <t>original</t>
   </si>
   <si>
+    <t>smote</t>
+  </si>
+  <si>
     <t>borderline smote</t>
-  </si>
-  <si>
-    <t>smote</t>
   </si>
   <si>
     <t>gan</t>
@@ -145,6 +217,1918 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Distribution!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>smote</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Distribution!$B$1:$AK$1</c:f>
+              <c:strCache>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>mix_HDBSCAN_cos</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>mix_HDBSCAN_nn</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>mix_KM_centroids</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>mix_KM_cos_mal</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>mix_KM_cos</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>mix_KM_nn</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>mix_KM_HDBSCAN_cos</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>mix_KM_HDBSCAN_cos_mal</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>mix_KM_HDBSCAN_nn</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>borderline_HDBSCAN_cos</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>borderline_HDBSCAN_nn</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>borderline_KM_centroids</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>borderline_KM_cos_mal</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>borderline_KM_cos</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>borderline_KM_nn</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>borderline_KM_HDBSCAN_cos</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>borderline_KM_HDBSCAN_cos_mal</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>borderline_KM_HDBSCAN_nn</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>smote_HDBSCAN_cos</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>smote_HDBSCAN_nn</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>smote_KM_centroids</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>smote_KM_cos_mal</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>smote_KM_cos</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>smote_KM_nn</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>smote_KM_HDBSCAN_cos</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>smote_KM_HDBSCAN_cos_mal</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>smote_KM_HDBSCAN_nn</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>GAN_HDBSCAN_cos</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>GAN_HDBSCAN_nn</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>GAN_KM_centroids</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>GAN_KM_cos_mal</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>GAN_KM_cos</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>GAN_KM_nn</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>GAN_KM_HDBSCAN_cos</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>GAN_KM_HDBSCAN_cos_mal</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>GAN_KM_HDBSCAN_nn</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Distribution!$B$3:$AK$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>14.90066225165563</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.23841059602649</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.9470198675496686</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.9536423841059598</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.2847682119205297</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.2781456953642394</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.9403973509933774</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.9536423841059598</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.33003300330032997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.33003300330032997</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.33003300330032997</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>34.653465346534652</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>34.653465346534652</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>34.768211920529801</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>34.768211920529801</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>34.768211920529801</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>34.653465346534652</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>34.768211920529801</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>34.653465346534652</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Distribution!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>borderline smote</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Distribution!$B$1:$AK$1</c:f>
+              <c:strCache>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>mix_HDBSCAN_cos</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>mix_HDBSCAN_nn</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>mix_KM_centroids</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>mix_KM_cos_mal</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>mix_KM_cos</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>mix_KM_nn</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>mix_KM_HDBSCAN_cos</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>mix_KM_HDBSCAN_cos_mal</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>mix_KM_HDBSCAN_nn</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>borderline_HDBSCAN_cos</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>borderline_HDBSCAN_nn</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>borderline_KM_centroids</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>borderline_KM_cos_mal</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>borderline_KM_cos</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>borderline_KM_nn</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>borderline_KM_HDBSCAN_cos</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>borderline_KM_HDBSCAN_cos_mal</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>borderline_KM_HDBSCAN_nn</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>smote_HDBSCAN_cos</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>smote_HDBSCAN_nn</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>smote_KM_centroids</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>smote_KM_cos_mal</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>smote_KM_cos</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>smote_KM_nn</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>smote_KM_HDBSCAN_cos</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>smote_KM_HDBSCAN_cos_mal</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>smote_KM_HDBSCAN_nn</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>GAN_HDBSCAN_cos</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>GAN_HDBSCAN_nn</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>GAN_KM_centroids</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>GAN_KM_cos_mal</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>GAN_KM_cos</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>GAN_KM_nn</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>GAN_KM_HDBSCAN_cos</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>GAN_KM_HDBSCAN_cos_mal</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>GAN_KM_HDBSCAN_nn</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Distribution!$B$4:$AK$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>13.90728476821192</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.569536423841059</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.9403973509933774</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.2715231788079464</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.6092715231788084</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.2781456953642394</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.629139072847682</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.6026490066225172</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>34.768211920529801</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>34.653465346534652</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>34.653465346534652</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>34.768211920529801</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>34.653465346534652</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>34.768211920529801</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>34.768211920529801</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>34.768211920529801</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.33003300330032997</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.33003300330032997</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.33003300330032997</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.33003300330032997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Distribution!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>gan</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Distribution!$B$1:$AK$1</c:f>
+              <c:strCache>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>mix_HDBSCAN_cos</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>mix_HDBSCAN_nn</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>mix_KM_centroids</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>mix_KM_cos_mal</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>mix_KM_cos</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>mix_KM_nn</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>mix_KM_HDBSCAN_cos</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>mix_KM_HDBSCAN_cos_mal</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>mix_KM_HDBSCAN_nn</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>borderline_HDBSCAN_cos</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>borderline_HDBSCAN_nn</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>borderline_KM_centroids</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>borderline_KM_cos_mal</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>borderline_KM_cos</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>borderline_KM_nn</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>borderline_KM_HDBSCAN_cos</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>borderline_KM_HDBSCAN_cos_mal</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>borderline_KM_HDBSCAN_nn</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>smote_HDBSCAN_cos</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>smote_HDBSCAN_nn</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>smote_KM_centroids</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>smote_KM_cos_mal</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>smote_KM_cos</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>smote_KM_nn</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>smote_KM_HDBSCAN_cos</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>smote_KM_HDBSCAN_cos_mal</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>smote_KM_HDBSCAN_nn</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>GAN_HDBSCAN_cos</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>GAN_HDBSCAN_nn</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>GAN_KM_centroids</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>GAN_KM_cos_mal</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>GAN_KM_cos</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>GAN_KM_nn</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>GAN_KM_HDBSCAN_cos</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>GAN_KM_HDBSCAN_cos_mal</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>GAN_KM_HDBSCAN_nn</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Distribution!$B$5:$AK$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>5.9602649006622519</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.9602649006622519</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.880794701986751</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.543046357615889</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18.87417218543046</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18.211920529801318</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20.19867549668874</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18.211920529801318</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>34.768211920529801</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>34.768211920529801</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>34.768211920529801</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>34.768211920529801</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>34.768211920529801</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34.768211920529801</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34.768211920529801</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>34.768211920529801</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Distribution!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>centroid</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Distribution!$B$1:$AK$1</c:f>
+              <c:strCache>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>mix_HDBSCAN_cos</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>mix_HDBSCAN_nn</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>mix_KM_centroids</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>mix_KM_cos_mal</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>mix_KM_cos</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>mix_KM_nn</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>mix_KM_HDBSCAN_cos</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>mix_KM_HDBSCAN_cos_mal</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>mix_KM_HDBSCAN_nn</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>borderline_HDBSCAN_cos</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>borderline_HDBSCAN_nn</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>borderline_KM_centroids</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>borderline_KM_cos_mal</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>borderline_KM_cos</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>borderline_KM_nn</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>borderline_KM_HDBSCAN_cos</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>borderline_KM_HDBSCAN_cos_mal</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>borderline_KM_HDBSCAN_nn</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>smote_HDBSCAN_cos</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>smote_HDBSCAN_nn</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>smote_KM_centroids</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>smote_KM_cos_mal</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>smote_KM_cos</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>smote_KM_nn</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>smote_KM_HDBSCAN_cos</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>smote_KM_HDBSCAN_cos_mal</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>smote_KM_HDBSCAN_nn</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>GAN_HDBSCAN_cos</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>GAN_HDBSCAN_nn</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>GAN_KM_centroids</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>GAN_KM_cos_mal</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>GAN_KM_cos</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>GAN_KM_nn</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>GAN_KM_HDBSCAN_cos</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>GAN_KM_HDBSCAN_cos_mal</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>GAN_KM_HDBSCAN_nn</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Distribution!$B$6:$AK$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="2">
+                  <c:v>34.768211920529801</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>34.768211920529801</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>34.768211920529801</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>34.768211920529801</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="1232162672"/>
+        <c:axId val="1232159952"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Distribution!$A$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>original</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Distribution!$B$1:$AK$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="36"/>
+                      <c:pt idx="0">
+                        <c:v>mix_HDBSCAN_cos</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>mix_HDBSCAN_nn</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>mix_KM_centroids</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>mix_KM_cos_mal</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>mix_KM_cos</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>mix_KM_nn</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>mix_KM_HDBSCAN_cos</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>mix_KM_HDBSCAN_cos_mal</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>mix_KM_HDBSCAN_nn</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>borderline_HDBSCAN_cos</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>borderline_HDBSCAN_nn</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>borderline_KM_centroids</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>borderline_KM_cos_mal</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>borderline_KM_cos</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>borderline_KM_nn</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>borderline_KM_HDBSCAN_cos</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>borderline_KM_HDBSCAN_cos_mal</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>borderline_KM_HDBSCAN_nn</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>smote_HDBSCAN_cos</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>smote_HDBSCAN_nn</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>smote_KM_centroids</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>smote_KM_cos_mal</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>smote_KM_cos</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>smote_KM_nn</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>smote_KM_HDBSCAN_cos</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>smote_KM_HDBSCAN_cos_mal</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>smote_KM_HDBSCAN_nn</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>GAN_HDBSCAN_cos</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>GAN_HDBSCAN_nn</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>GAN_KM_centroids</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>GAN_KM_cos_mal</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>GAN_KM_cos</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>GAN_KM_nn</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>GAN_KM_HDBSCAN_cos</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>GAN_KM_HDBSCAN_cos_mal</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>GAN_KM_HDBSCAN_nn</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Distribution!$B$2:$AK$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="36"/>
+                      <c:pt idx="0">
+                        <c:v>65.231788079470192</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>65.231788079470192</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>65.231788079470192</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>65.231788079470192</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>65.231788079470192</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>65.231788079470192</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>65.231788079470192</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>65.231788079470192</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>65.231788079470192</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>65.231788079470192</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>65.016501650165011</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>65.231788079470192</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>65.016501650165011</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>65.231788079470192</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>65.016501650165011</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>65.231788079470192</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>65.231788079470192</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>65.231788079470192</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>65.016501650165011</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>65.016501650165011</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>65.231788079470192</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>65.231788079470192</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>65.231788079470192</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>65.231788079470192</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>65.016501650165011</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>65.231788079470192</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>65.016501650165011</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>65.231788079470192</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>65.231788079470192</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>65.231788079470192</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>65.231788079470192</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>65.231788079470192</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>65.231788079470192</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>65.231788079470192</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>65.231788079470192</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>65.231788079470192</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1232162672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1232159952"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1232159952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>%</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1232162672"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>606424</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>82550</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Wykres 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -434,15 +2418,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:AK6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M49" sqref="M49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -479,117 +2463,391 @@
       <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="B2">
-        <v>54.635761589403977</v>
+        <v>65.231788079470192</v>
+      </c>
+      <c r="C2">
+        <v>65.231788079470192</v>
       </c>
       <c r="D2">
-        <v>50.662251655629142</v>
+        <v>65.231788079470192</v>
       </c>
       <c r="E2">
-        <v>52.317880794701978</v>
+        <v>65.231788079470192</v>
+      </c>
+      <c r="F2">
+        <v>65.231788079470192</v>
       </c>
       <c r="G2">
-        <v>57.947019867549663</v>
+        <v>65.231788079470192</v>
       </c>
       <c r="H2">
-        <v>54.635761589403977</v>
+        <v>65.231788079470192</v>
+      </c>
+      <c r="I2">
+        <v>65.231788079470192</v>
       </c>
       <c r="J2">
-        <v>51.986754966887418</v>
+        <v>65.231788079470192</v>
       </c>
       <c r="K2">
-        <v>58.940397350993379</v>
+        <v>65.231788079470192</v>
+      </c>
+      <c r="L2">
+        <v>65.016501650165011</v>
       </c>
       <c r="M2">
-        <v>50.662251655629142</v>
+        <v>65.231788079470192</v>
+      </c>
+      <c r="N2">
+        <v>65.016501650165011</v>
+      </c>
+      <c r="O2">
+        <v>65.231788079470192</v>
+      </c>
+      <c r="P2">
+        <v>65.016501650165011</v>
+      </c>
+      <c r="Q2">
+        <v>65.231788079470192</v>
+      </c>
+      <c r="R2">
+        <v>65.231788079470192</v>
+      </c>
+      <c r="S2">
+        <v>65.231788079470192</v>
+      </c>
+      <c r="T2">
+        <v>65.016501650165011</v>
+      </c>
+      <c r="U2">
+        <v>65.016501650165011</v>
+      </c>
+      <c r="V2">
+        <v>65.231788079470192</v>
+      </c>
+      <c r="W2">
+        <v>65.231788079470192</v>
+      </c>
+      <c r="X2">
+        <v>65.231788079470192</v>
+      </c>
+      <c r="Y2">
+        <v>65.231788079470192</v>
+      </c>
+      <c r="Z2">
+        <v>65.016501650165011</v>
+      </c>
+      <c r="AA2">
+        <v>65.231788079470192</v>
+      </c>
+      <c r="AB2">
+        <v>65.016501650165011</v>
+      </c>
+      <c r="AC2">
+        <v>65.231788079470192</v>
+      </c>
+      <c r="AD2">
+        <v>65.231788079470192</v>
+      </c>
+      <c r="AE2">
+        <v>65.231788079470192</v>
+      </c>
+      <c r="AF2">
+        <v>65.231788079470192</v>
+      </c>
+      <c r="AG2">
+        <v>65.231788079470192</v>
+      </c>
+      <c r="AH2">
+        <v>65.231788079470192</v>
+      </c>
+      <c r="AI2">
+        <v>65.231788079470192</v>
+      </c>
+      <c r="AJ2">
+        <v>65.231788079470192</v>
+      </c>
+      <c r="AK2">
+        <v>65.231788079470192</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="B3">
-        <v>26.158940397350989</v>
-      </c>
-      <c r="D3">
-        <v>2.9801324503311259</v>
+        <v>14.90066225165563</v>
+      </c>
+      <c r="C3">
+        <v>14.23841059602649</v>
       </c>
       <c r="E3">
-        <v>47.682119205298022</v>
+        <v>7.9470198675496686</v>
+      </c>
+      <c r="F3">
+        <v>6.9536423841059598</v>
       </c>
       <c r="G3">
-        <v>17.21854304635762</v>
+        <v>7.2847682119205297</v>
+      </c>
+      <c r="H3">
+        <v>8.2781456953642394</v>
+      </c>
+      <c r="I3">
+        <v>8.9403973509933774</v>
+      </c>
+      <c r="J3">
+        <v>6.9536423841059598</v>
+      </c>
+      <c r="L3">
+        <v>0.33003300330032997</v>
+      </c>
+      <c r="N3">
+        <v>0.33003300330032997</v>
+      </c>
+      <c r="P3">
+        <v>0.33003300330032997</v>
+      </c>
+      <c r="T3">
+        <v>34.653465346534652</v>
+      </c>
+      <c r="U3">
+        <v>34.653465346534652</v>
+      </c>
+      <c r="W3">
+        <v>34.768211920529801</v>
+      </c>
+      <c r="X3">
+        <v>34.768211920529801</v>
+      </c>
+      <c r="Y3">
+        <v>34.768211920529801</v>
+      </c>
+      <c r="Z3">
+        <v>34.653465346534652</v>
+      </c>
+      <c r="AA3">
+        <v>34.768211920529801</v>
+      </c>
+      <c r="AB3">
+        <v>34.653465346534652</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="B4">
-        <v>16.88741721854305</v>
-      </c>
-      <c r="D4">
-        <v>1.9867549668874169</v>
+        <v>13.90728476821192</v>
+      </c>
+      <c r="C4">
+        <v>14.569536423841059</v>
+      </c>
+      <c r="E4">
+        <v>8.9403973509933774</v>
+      </c>
+      <c r="F4">
+        <v>9.2715231788079464</v>
+      </c>
+      <c r="G4">
+        <v>8.6092715231788084</v>
       </c>
       <c r="H4">
-        <v>45.364238410596023</v>
+        <v>8.2781456953642394</v>
+      </c>
+      <c r="I4">
+        <v>5.629139072847682</v>
       </c>
       <c r="J4">
-        <v>12.913907284768211</v>
+        <v>9.6026490066225172</v>
+      </c>
+      <c r="K4">
+        <v>34.768211920529801</v>
+      </c>
+      <c r="L4">
+        <v>34.653465346534652</v>
+      </c>
+      <c r="N4">
+        <v>34.653465346534652</v>
+      </c>
+      <c r="O4">
+        <v>34.768211920529801</v>
+      </c>
+      <c r="P4">
+        <v>34.653465346534652</v>
+      </c>
+      <c r="Q4">
+        <v>34.768211920529801</v>
+      </c>
+      <c r="R4">
+        <v>34.768211920529801</v>
+      </c>
+      <c r="S4">
+        <v>34.768211920529801</v>
+      </c>
+      <c r="T4">
+        <v>0.33003300330032997</v>
+      </c>
+      <c r="U4">
+        <v>0.33003300330032997</v>
+      </c>
+      <c r="Z4">
+        <v>0.33003300330032997</v>
+      </c>
+      <c r="AB4">
+        <v>0.33003300330032997</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="B5">
-        <v>2.317880794701987</v>
-      </c>
-      <c r="D5">
-        <v>25.165562913907291</v>
-      </c>
-      <c r="K5">
-        <v>41.059602649006621</v>
-      </c>
-      <c r="M5">
-        <v>11.589403973509929</v>
+        <v>5.9602649006622519</v>
+      </c>
+      <c r="C5">
+        <v>5.9602649006622519</v>
+      </c>
+      <c r="E5">
+        <v>17.880794701986751</v>
+      </c>
+      <c r="F5">
+        <v>18.543046357615889</v>
+      </c>
+      <c r="G5">
+        <v>18.87417218543046</v>
+      </c>
+      <c r="H5">
+        <v>18.211920529801318</v>
+      </c>
+      <c r="I5">
+        <v>20.19867549668874</v>
+      </c>
+      <c r="J5">
+        <v>18.211920529801318</v>
+      </c>
+      <c r="AC5">
+        <v>34.768211920529801</v>
+      </c>
+      <c r="AD5">
+        <v>34.768211920529801</v>
+      </c>
+      <c r="AF5">
+        <v>34.768211920529801</v>
+      </c>
+      <c r="AG5">
+        <v>34.768211920529801</v>
+      </c>
+      <c r="AH5">
+        <v>34.768211920529801</v>
+      </c>
+      <c r="AI5">
+        <v>34.768211920529801</v>
+      </c>
+      <c r="AJ5">
+        <v>34.768211920529801</v>
+      </c>
+      <c r="AK5">
+        <v>34.768211920529801</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="D6">
-        <v>19.205298013245031</v>
-      </c>
-      <c r="F6">
-        <v>100</v>
-      </c>
-      <c r="G6">
-        <v>24.834437086092709</v>
-      </c>
-      <c r="I6">
-        <v>100</v>
-      </c>
-      <c r="J6">
-        <v>35.099337748344382</v>
-      </c>
-      <c r="L6">
-        <v>100</v>
+        <v>34.768211920529801</v>
       </c>
       <c r="M6">
-        <v>37.748344370860927</v>
+        <v>34.768211920529801</v>
+      </c>
+      <c r="V6">
+        <v>34.768211920529801</v>
+      </c>
+      <c r="AE6">
+        <v>34.768211920529801</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/reports/ssh/distribiution/distribiution.xlsx
+++ b/reports/ssh/distribiution/distribiution.xlsx
@@ -266,9 +266,16 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Distribution!$B$1:$AK$1</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Distribution!$B$1:$AK$1</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Distribution!$B$1:$C$1,Distribution!$E$1:$J$1)</c:f>
               <c:strCache>
-                <c:ptCount val="36"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>mix_HDBSCAN_cos</c:v>
                 </c:pt>
@@ -276,172 +283,62 @@
                   <c:v>mix_HDBSCAN_nn</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>mix_KM_centroids</c:v>
+                  <c:v>mix_KM_cos_mal</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>mix_KM_cos_mal</c:v>
+                  <c:v>mix_KM_cos</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>mix_KM_cos</c:v>
+                  <c:v>mix_KM_nn</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>mix_KM_nn</c:v>
+                  <c:v>mix_KM_HDBSCAN_cos</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>mix_KM_HDBSCAN_cos</c:v>
+                  <c:v>mix_KM_HDBSCAN_cos_mal</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>mix_KM_HDBSCAN_cos_mal</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>mix_KM_HDBSCAN_nn</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>borderline_HDBSCAN_cos</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>borderline_HDBSCAN_nn</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>borderline_KM_centroids</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>borderline_KM_cos_mal</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>borderline_KM_cos</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>borderline_KM_nn</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>borderline_KM_HDBSCAN_cos</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>borderline_KM_HDBSCAN_cos_mal</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>borderline_KM_HDBSCAN_nn</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>smote_HDBSCAN_cos</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>smote_HDBSCAN_nn</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>smote_KM_centroids</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>smote_KM_cos_mal</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>smote_KM_cos</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>smote_KM_nn</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>smote_KM_HDBSCAN_cos</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>smote_KM_HDBSCAN_cos_mal</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>smote_KM_HDBSCAN_nn</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>GAN_HDBSCAN_cos</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>GAN_HDBSCAN_nn</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>GAN_KM_centroids</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>GAN_KM_cos_mal</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>GAN_KM_cos</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>GAN_KM_nn</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>GAN_KM_HDBSCAN_cos</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>GAN_KM_HDBSCAN_cos_mal</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>GAN_KM_HDBSCAN_nn</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Distribution!$B$3:$AK$3</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Distribution!$B$3:$AK$3</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Distribution!$B$3:$C$3,Distribution!$E$3:$J$3)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>14.90066225165563</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>14.23841059602649</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.9470198675496686</c:v>
+                </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.9470198675496686</c:v>
+                  <c:v>6.9536423841059598</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>7.2847682119205297</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.2781456953642394</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.9403973509933774</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>6.9536423841059598</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.2847682119205297</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8.2781456953642394</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.9403973509933774</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6.9536423841059598</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.33003300330032997</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.33003300330032997</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.33003300330032997</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>34.653465346534652</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>34.653465346534652</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>34.768211920529801</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>34.768211920529801</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>34.768211920529801</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>34.653465346534652</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>34.768211920529801</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>34.653465346534652</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -473,9 +370,16 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Distribution!$B$1:$AK$1</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Distribution!$B$1:$AK$1</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Distribution!$B$1:$C$1,Distribution!$E$1:$J$1)</c:f>
               <c:strCache>
-                <c:ptCount val="36"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>mix_HDBSCAN_cos</c:v>
                 </c:pt>
@@ -483,175 +387,62 @@
                   <c:v>mix_HDBSCAN_nn</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>mix_KM_centroids</c:v>
+                  <c:v>mix_KM_cos_mal</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>mix_KM_cos_mal</c:v>
+                  <c:v>mix_KM_cos</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>mix_KM_cos</c:v>
+                  <c:v>mix_KM_nn</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>mix_KM_nn</c:v>
+                  <c:v>mix_KM_HDBSCAN_cos</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>mix_KM_HDBSCAN_cos</c:v>
+                  <c:v>mix_KM_HDBSCAN_cos_mal</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>mix_KM_HDBSCAN_cos_mal</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>mix_KM_HDBSCAN_nn</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>borderline_HDBSCAN_cos</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>borderline_HDBSCAN_nn</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>borderline_KM_centroids</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>borderline_KM_cos_mal</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>borderline_KM_cos</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>borderline_KM_nn</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>borderline_KM_HDBSCAN_cos</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>borderline_KM_HDBSCAN_cos_mal</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>borderline_KM_HDBSCAN_nn</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>smote_HDBSCAN_cos</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>smote_HDBSCAN_nn</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>smote_KM_centroids</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>smote_KM_cos_mal</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>smote_KM_cos</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>smote_KM_nn</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>smote_KM_HDBSCAN_cos</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>smote_KM_HDBSCAN_cos_mal</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>smote_KM_HDBSCAN_nn</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>GAN_HDBSCAN_cos</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>GAN_HDBSCAN_nn</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>GAN_KM_centroids</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>GAN_KM_cos_mal</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>GAN_KM_cos</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>GAN_KM_nn</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>GAN_KM_HDBSCAN_cos</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>GAN_KM_HDBSCAN_cos_mal</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>GAN_KM_HDBSCAN_nn</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Distribution!$B$4:$AK$4</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Distribution!$B$4:$AK$4</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Distribution!$B$4:$C$4,Distribution!$E$4:$J$4)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>13.90728476821192</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>14.569536423841059</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.9403973509933774</c:v>
+                </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.9403973509933774</c:v>
+                  <c:v>9.2715231788079464</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.2715231788079464</c:v>
+                  <c:v>8.6092715231788084</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.6092715231788084</c:v>
+                  <c:v>8.2781456953642394</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.2781456953642394</c:v>
+                  <c:v>5.629139072847682</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.629139072847682</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>9.6026490066225172</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>34.768211920529801</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>34.653465346534652</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>34.653465346534652</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>34.768211920529801</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>34.653465346534652</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>34.768211920529801</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>34.768211920529801</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>34.768211920529801</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.33003300330032997</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.33003300330032997</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.33003300330032997</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.33003300330032997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -683,9 +474,16 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Distribution!$B$1:$AK$1</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Distribution!$B$1:$AK$1</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Distribution!$B$1:$C$1,Distribution!$E$1:$J$1)</c:f>
               <c:strCache>
-                <c:ptCount val="36"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>mix_HDBSCAN_cos</c:v>
                 </c:pt>
@@ -693,325 +491,62 @@
                   <c:v>mix_HDBSCAN_nn</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>mix_KM_centroids</c:v>
+                  <c:v>mix_KM_cos_mal</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>mix_KM_cos_mal</c:v>
+                  <c:v>mix_KM_cos</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>mix_KM_cos</c:v>
+                  <c:v>mix_KM_nn</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>mix_KM_nn</c:v>
+                  <c:v>mix_KM_HDBSCAN_cos</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>mix_KM_HDBSCAN_cos</c:v>
+                  <c:v>mix_KM_HDBSCAN_cos_mal</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>mix_KM_HDBSCAN_cos_mal</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>mix_KM_HDBSCAN_nn</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>borderline_HDBSCAN_cos</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>borderline_HDBSCAN_nn</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>borderline_KM_centroids</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>borderline_KM_cos_mal</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>borderline_KM_cos</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>borderline_KM_nn</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>borderline_KM_HDBSCAN_cos</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>borderline_KM_HDBSCAN_cos_mal</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>borderline_KM_HDBSCAN_nn</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>smote_HDBSCAN_cos</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>smote_HDBSCAN_nn</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>smote_KM_centroids</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>smote_KM_cos_mal</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>smote_KM_cos</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>smote_KM_nn</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>smote_KM_HDBSCAN_cos</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>smote_KM_HDBSCAN_cos_mal</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>smote_KM_HDBSCAN_nn</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>GAN_HDBSCAN_cos</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>GAN_HDBSCAN_nn</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>GAN_KM_centroids</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>GAN_KM_cos_mal</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>GAN_KM_cos</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>GAN_KM_nn</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>GAN_KM_HDBSCAN_cos</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>GAN_KM_HDBSCAN_cos_mal</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>GAN_KM_HDBSCAN_nn</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Distribution!$B$5:$AK$5</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Distribution!$B$5:$AK$5</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Distribution!$B$5:$C$5,Distribution!$E$5:$J$5)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>5.9602649006622519</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>5.9602649006622519</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.880794701986751</c:v>
+                </c:pt>
                 <c:pt idx="3">
-                  <c:v>17.880794701986751</c:v>
+                  <c:v>18.543046357615889</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18.543046357615889</c:v>
+                  <c:v>18.87417218543046</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18.87417218543046</c:v>
+                  <c:v>18.211920529801318</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>20.19867549668874</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>18.211920529801318</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>20.19867549668874</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>18.211920529801318</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>34.768211920529801</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>34.768211920529801</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>34.768211920529801</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>34.768211920529801</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>34.768211920529801</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>34.768211920529801</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>34.768211920529801</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>34.768211920529801</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Distribution!$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>centroid</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Distribution!$B$1:$AK$1</c:f>
-              <c:strCache>
-                <c:ptCount val="36"/>
-                <c:pt idx="0">
-                  <c:v>mix_HDBSCAN_cos</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>mix_HDBSCAN_nn</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>mix_KM_centroids</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>mix_KM_cos_mal</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>mix_KM_cos</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>mix_KM_nn</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>mix_KM_HDBSCAN_cos</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>mix_KM_HDBSCAN_cos_mal</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>mix_KM_HDBSCAN_nn</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>borderline_HDBSCAN_cos</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>borderline_HDBSCAN_nn</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>borderline_KM_centroids</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>borderline_KM_cos_mal</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>borderline_KM_cos</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>borderline_KM_nn</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>borderline_KM_HDBSCAN_cos</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>borderline_KM_HDBSCAN_cos_mal</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>borderline_KM_HDBSCAN_nn</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>smote_HDBSCAN_cos</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>smote_HDBSCAN_nn</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>smote_KM_centroids</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>smote_KM_cos_mal</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>smote_KM_cos</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>smote_KM_nn</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>smote_KM_HDBSCAN_cos</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>smote_KM_HDBSCAN_cos_mal</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>smote_KM_HDBSCAN_nn</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>GAN_HDBSCAN_cos</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>GAN_HDBSCAN_nn</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>GAN_KM_centroids</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>GAN_KM_cos_mal</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>GAN_KM_cos</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>GAN_KM_nn</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>GAN_KM_HDBSCAN_cos</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>GAN_KM_HDBSCAN_cos_mal</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>GAN_KM_HDBSCAN_nn</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Distribution!$B$6:$AK$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
-                <c:pt idx="2">
-                  <c:v>34.768211920529801</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>34.768211920529801</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>34.768211920529801</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>34.768211920529801</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1065,13 +600,16 @@
                   <c:strRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Distribution!$B$1:$AK$1</c15:sqref>
+                        </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Distribution!$B$1:$AK$1</c15:sqref>
+                          <c15:sqref>(Distribution!$B$1:$C$1,Distribution!$E$1:$J$1)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="36"/>
+                      <c:ptCount val="8"/>
                       <c:pt idx="0">
                         <c:v>mix_HDBSCAN_cos</c:v>
                       </c:pt>
@@ -1079,106 +617,22 @@
                         <c:v>mix_HDBSCAN_nn</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>mix_KM_centroids</c:v>
+                        <c:v>mix_KM_cos_mal</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>mix_KM_cos_mal</c:v>
+                        <c:v>mix_KM_cos</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>mix_KM_cos</c:v>
+                        <c:v>mix_KM_nn</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>mix_KM_nn</c:v>
+                        <c:v>mix_KM_HDBSCAN_cos</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>mix_KM_HDBSCAN_cos</c:v>
+                        <c:v>mix_KM_HDBSCAN_cos_mal</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>mix_KM_HDBSCAN_cos_mal</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
                         <c:v>mix_KM_HDBSCAN_nn</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>borderline_HDBSCAN_cos</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>borderline_HDBSCAN_nn</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>borderline_KM_centroids</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>borderline_KM_cos_mal</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>borderline_KM_cos</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>borderline_KM_nn</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>borderline_KM_HDBSCAN_cos</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>borderline_KM_HDBSCAN_cos_mal</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>borderline_KM_HDBSCAN_nn</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>smote_HDBSCAN_cos</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>smote_HDBSCAN_nn</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>smote_KM_centroids</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>smote_KM_cos_mal</c:v>
-                      </c:pt>
-                      <c:pt idx="22">
-                        <c:v>smote_KM_cos</c:v>
-                      </c:pt>
-                      <c:pt idx="23">
-                        <c:v>smote_KM_nn</c:v>
-                      </c:pt>
-                      <c:pt idx="24">
-                        <c:v>smote_KM_HDBSCAN_cos</c:v>
-                      </c:pt>
-                      <c:pt idx="25">
-                        <c:v>smote_KM_HDBSCAN_cos_mal</c:v>
-                      </c:pt>
-                      <c:pt idx="26">
-                        <c:v>smote_KM_HDBSCAN_nn</c:v>
-                      </c:pt>
-                      <c:pt idx="27">
-                        <c:v>GAN_HDBSCAN_cos</c:v>
-                      </c:pt>
-                      <c:pt idx="28">
-                        <c:v>GAN_HDBSCAN_nn</c:v>
-                      </c:pt>
-                      <c:pt idx="29">
-                        <c:v>GAN_KM_centroids</c:v>
-                      </c:pt>
-                      <c:pt idx="30">
-                        <c:v>GAN_KM_cos_mal</c:v>
-                      </c:pt>
-                      <c:pt idx="31">
-                        <c:v>GAN_KM_cos</c:v>
-                      </c:pt>
-                      <c:pt idx="32">
-                        <c:v>GAN_KM_nn</c:v>
-                      </c:pt>
-                      <c:pt idx="33">
-                        <c:v>GAN_KM_HDBSCAN_cos</c:v>
-                      </c:pt>
-                      <c:pt idx="34">
-                        <c:v>GAN_KM_HDBSCAN_cos_mal</c:v>
-                      </c:pt>
-                      <c:pt idx="35">
-                        <c:v>GAN_KM_HDBSCAN_nn</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -1187,14 +641,17 @@
                   <c:numRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Distribution!$B$2:$AK$2</c15:sqref>
+                        </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Distribution!$B$2:$AK$2</c15:sqref>
+                          <c15:sqref>(Distribution!$B$2:$C$2,Distribution!$E$2:$J$2)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="36"/>
+                      <c:ptCount val="8"/>
                       <c:pt idx="0">
                         <c:v>65.231788079470192</c:v>
                       </c:pt>
@@ -1219,90 +676,98 @@
                       <c:pt idx="7">
                         <c:v>65.231788079470192</c:v>
                       </c:pt>
-                      <c:pt idx="8">
-                        <c:v>65.231788079470192</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>65.231788079470192</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>65.016501650165011</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>65.231788079470192</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>65.016501650165011</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>65.231788079470192</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>65.016501650165011</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>65.231788079470192</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>65.231788079470192</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>65.231788079470192</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>65.016501650165011</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>65.016501650165011</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>65.231788079470192</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>65.231788079470192</c:v>
-                      </c:pt>
-                      <c:pt idx="22">
-                        <c:v>65.231788079470192</c:v>
-                      </c:pt>
-                      <c:pt idx="23">
-                        <c:v>65.231788079470192</c:v>
-                      </c:pt>
-                      <c:pt idx="24">
-                        <c:v>65.016501650165011</c:v>
-                      </c:pt>
-                      <c:pt idx="25">
-                        <c:v>65.231788079470192</c:v>
-                      </c:pt>
-                      <c:pt idx="26">
-                        <c:v>65.016501650165011</c:v>
-                      </c:pt>
-                      <c:pt idx="27">
-                        <c:v>65.231788079470192</c:v>
-                      </c:pt>
-                      <c:pt idx="28">
-                        <c:v>65.231788079470192</c:v>
-                      </c:pt>
-                      <c:pt idx="29">
-                        <c:v>65.231788079470192</c:v>
-                      </c:pt>
-                      <c:pt idx="30">
-                        <c:v>65.231788079470192</c:v>
-                      </c:pt>
-                      <c:pt idx="31">
-                        <c:v>65.231788079470192</c:v>
-                      </c:pt>
-                      <c:pt idx="32">
-                        <c:v>65.231788079470192</c:v>
-                      </c:pt>
-                      <c:pt idx="33">
-                        <c:v>65.231788079470192</c:v>
-                      </c:pt>
-                      <c:pt idx="34">
-                        <c:v>65.231788079470192</c:v>
-                      </c:pt>
-                      <c:pt idx="35">
-                        <c:v>65.231788079470192</c:v>
-                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Distribution!$A$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>centroid</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent5"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Distribution!$B$1:$AK$1</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>(Distribution!$B$1:$C$1,Distribution!$E$1:$J$1)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>mix_HDBSCAN_cos</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>mix_HDBSCAN_nn</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>mix_KM_cos_mal</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>mix_KM_cos</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>mix_KM_nn</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>mix_KM_HDBSCAN_cos</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>mix_KM_HDBSCAN_cos_mal</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>mix_KM_HDBSCAN_nn</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Distribution!$B$6:$AK$6</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>(Distribution!$B$6:$C$6,Distribution!$E$6:$J$6)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -2421,7 +1886,7 @@
   <dimension ref="A1:AK6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M49" sqref="M49"/>
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
